--- a/raw/1964election.xlsx
+++ b/raw/1964election.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Dropbox/MyData/USvoting/historical voting/1920to1974/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137BC6FC-2353-BB49-9B9C-42F94C5FA33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C8E923-9BA9-944F-9343-4A910A742C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="16500" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6273" uniqueCount="1960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6268" uniqueCount="1960">
   <si>
     <t>State</t>
   </si>
@@ -6385,7 +6385,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -6692,8 +6692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="C719" zoomScale="200" workbookViewId="0">
+      <selection activeCell="D737" sqref="D737"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -17436,7 +17436,7 @@
         <v>7</v>
       </c>
       <c r="D476">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E476" t="s">
         <v>594</v>
@@ -23177,7 +23177,7 @@
         <v>7</v>
       </c>
       <c r="D731">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E731" t="s">
         <v>978</v>
@@ -23198,7 +23198,7 @@
         <v>7</v>
       </c>
       <c r="D732">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E732" t="s">
         <v>978</v>
@@ -27228,8 +27228,8 @@
       <c r="C910" t="s">
         <v>7</v>
       </c>
-      <c r="D910" t="s">
-        <v>94</v>
+      <c r="D910">
+        <v>10</v>
       </c>
       <c r="E910" t="s">
         <v>1216</v>
@@ -28717,8 +28717,8 @@
       <c r="C975" t="s">
         <v>7</v>
       </c>
-      <c r="D975" t="s">
-        <v>8</v>
+      <c r="D975">
+        <v>2</v>
       </c>
       <c r="E975" t="s">
         <v>1311</v>
@@ -30762,8 +30762,8 @@
       <c r="C1066" t="s">
         <v>7</v>
       </c>
-      <c r="D1066" t="s">
-        <v>8</v>
+      <c r="D1066">
+        <v>2</v>
       </c>
       <c r="E1066" t="s">
         <v>1906</v>
@@ -30831,8 +30831,8 @@
       <c r="C1069" t="s">
         <v>7</v>
       </c>
-      <c r="D1069" t="s">
-        <v>15</v>
+      <c r="D1069">
+        <v>3</v>
       </c>
       <c r="E1069" t="s">
         <v>1908</v>
@@ -30854,8 +30854,8 @@
       <c r="C1070" t="s">
         <v>7</v>
       </c>
-      <c r="D1070" t="s">
-        <v>15</v>
+      <c r="D1070">
+        <v>3</v>
       </c>
       <c r="E1070" t="s">
         <v>1909</v>
